--- a/output/fit_clients/fit_round_407.xlsx
+++ b/output/fit_clients/fit_round_407.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2352401666.123352</v>
+        <v>1704599505.538566</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1101663315739477</v>
+        <v>0.1003290569419653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03428787382734588</v>
+        <v>0.04463917580739363</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1176200876.145053</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1627082781.638757</v>
+        <v>2401457915.338233</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1438731044383724</v>
+        <v>0.1591122214341303</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04919853179497748</v>
+        <v>0.04034421965578613</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>813541373.1412126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3550589787.167419</v>
+        <v>4819998589.038712</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1313131179407266</v>
+        <v>0.1505915651407378</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03453462473601124</v>
+        <v>0.02770120070151635</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>147</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1775294875.936089</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2592452077.903277</v>
+        <v>3850246001.263911</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1097877827614759</v>
+        <v>0.06996124653961236</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04517765103562234</v>
+        <v>0.03222650769528213</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>150</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1296226135.810943</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2181043819.79802</v>
+        <v>2011341403.820247</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09872260906518182</v>
+        <v>0.1144546289463588</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04269790065616109</v>
+        <v>0.04945525054001381</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>74</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1090521919.913973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3021435504.738905</v>
+        <v>2170768771.352629</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08117145889279484</v>
+        <v>0.07078796567037822</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04094110259296824</v>
+        <v>0.04194194101321726</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>127</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1510717715.270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3108164898.1039</v>
+        <v>2393484104.037608</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1718588377423302</v>
+        <v>0.1769533662555973</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02097319683099269</v>
+        <v>0.03021307724460943</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>130</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1554082517.639118</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2017545714.253759</v>
+        <v>1840672350.805832</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1870945856096712</v>
+        <v>0.1935986644416264</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02404731086890897</v>
+        <v>0.02759721697727231</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1008772881.314475</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4300677286.289467</v>
+        <v>4007465930.912882</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1413974202246041</v>
+        <v>0.1482696723485133</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05389124048505756</v>
+        <v>0.03860643279734031</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>171</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2150338688.316287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3567196146.669431</v>
+        <v>3997779255.138369</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1224545283301845</v>
+        <v>0.1846054229110805</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04260732622174816</v>
+        <v>0.03828661590378878</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>168</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1783598055.849473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3152392426.494505</v>
+        <v>2867766901.192755</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1711816914783338</v>
+        <v>0.1240024217028968</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04747346525678931</v>
+        <v>0.03614872139667528</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>137</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1576196245.231772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5336259850.397482</v>
+        <v>4741338509.317833</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0868182786583124</v>
+        <v>0.07158564723176009</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02853858345355814</v>
+        <v>0.02701440953849451</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>137</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2668129912.272063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3780317698.639829</v>
+        <v>2928439684.68375</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1658928958346036</v>
+        <v>0.1681880599383027</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04087480878950758</v>
+        <v>0.02992318426206755</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>130</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1890158827.267378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1161729088.974774</v>
+        <v>1275783701.665699</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1054781656370438</v>
+        <v>0.06883445770180464</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03601940041813555</v>
+        <v>0.04542046353746178</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>580864553.3001655</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2157956674.489809</v>
+        <v>2526029505.874468</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08103372870719272</v>
+        <v>0.09870769629781473</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03400164783739839</v>
+        <v>0.04818183996583014</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>83</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1078978398.631866</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5254667422.775803</v>
+        <v>4465378548.496155</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1552311696806485</v>
+        <v>0.1604988443505704</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04930401347508111</v>
+        <v>0.03498686226309904</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2627333683.995844</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3328578085.635111</v>
+        <v>3586411170.921331</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1691165097048376</v>
+        <v>0.1332805593107269</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03304791306216646</v>
+        <v>0.03221090707237124</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>133</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1664289049.356605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>899979199.4985468</v>
+        <v>1258928930.806247</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1497231016289896</v>
+        <v>0.1388905132090505</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01694529703517952</v>
+        <v>0.01896507553777575</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>449989604.6375213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2633189138.768478</v>
+        <v>2505649234.195848</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1364811082992354</v>
+        <v>0.1461505290679561</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02989726925562329</v>
+        <v>0.02007244294209655</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>54</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1316594528.284085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2356606246.681542</v>
+        <v>2667912475.257367</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07595253865997359</v>
+        <v>0.07405934918572393</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03644236454986941</v>
+        <v>0.04016220137161432</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1178303125.2087</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2490829107.391638</v>
+        <v>2721925575.578806</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1040985168140604</v>
+        <v>0.119017756475629</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0537067634130242</v>
+        <v>0.04716586579613494</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>112</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1245414645.728996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1218405058.839358</v>
+        <v>1112607109.877807</v>
       </c>
       <c r="F23" t="n">
-        <v>0.176600440536917</v>
+        <v>0.1230699845467249</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05184675512432568</v>
+        <v>0.04551329868493491</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>609202562.8372756</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4132287618.71577</v>
+        <v>2647783931.915474</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09045036012250128</v>
+        <v>0.1439173001158611</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02469350745179043</v>
+        <v>0.03356473400471702</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>121</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2066143768.470639</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>958370383.308441</v>
+        <v>1319488970.167948</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0888504997367299</v>
+        <v>0.08503066662999101</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02881970759397701</v>
+        <v>0.01939217058405908</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>479185265.222455</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1136185152.472669</v>
+        <v>1110616468.078505</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09993714856797545</v>
+        <v>0.08805756194483212</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0239532215067663</v>
+        <v>0.02407402259917235</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>568092581.7154533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3716247164.253898</v>
+        <v>4648792437.037823</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1257384013768084</v>
+        <v>0.09889664303116719</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02394536630225931</v>
+        <v>0.01874128992085228</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1858123606.41331</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3167673522.634884</v>
+        <v>3632996095.783069</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09969191708198336</v>
+        <v>0.1154513294798982</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03457983640911368</v>
+        <v>0.04217813612690731</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1583836787.137724</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4284811272.653169</v>
+        <v>5692014055.984125</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1251040200317771</v>
+        <v>0.1103660505489621</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03041010243204208</v>
+        <v>0.04184220097135025</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>179</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2142405633.504851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1963335046.806439</v>
+        <v>2332497312.706984</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09627161244682192</v>
+        <v>0.1266113964056562</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03730508106586266</v>
+        <v>0.02735338019559239</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>981667556.7328765</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1068454491.382172</v>
+        <v>1202552822.946097</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09040331194612619</v>
+        <v>0.07305065671344471</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03928939818216297</v>
+        <v>0.04385778750170346</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>534227228.1320717</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1686732762.517092</v>
+        <v>1226956873.78812</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07518243407744284</v>
+        <v>0.1049928053438881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03630665112732415</v>
+        <v>0.0250780041605802</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>843366488.3105451</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2837207759.76978</v>
+        <v>2135852362.343929</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1678494784326459</v>
+        <v>0.2051181752828423</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05961416909384421</v>
+        <v>0.03846131626148085</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>121</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1418603889.392258</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1016037679.803832</v>
+        <v>1500917938.679206</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08392416898266229</v>
+        <v>0.07887792778445184</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02029644289457004</v>
+        <v>0.01772038088223613</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>508018875.1214939</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1297779573.649358</v>
+        <v>1206711609.943205</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07460919570710038</v>
+        <v>0.08247917617129491</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04451781668985241</v>
+        <v>0.03948927669615827</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>648889740.1205311</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2156695227.417758</v>
+        <v>3140915857.645995</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1547672753104411</v>
+        <v>0.1168876070142778</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02654966426813898</v>
+        <v>0.02354334926984004</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>103</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1078347663.207803</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2923386424.044232</v>
+        <v>2660935116.195786</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09463258104531583</v>
+        <v>0.1005482729643096</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03224302118269125</v>
+        <v>0.04174064067358155</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>110</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1461693366.341542</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1535489020.675621</v>
+        <v>1893204381.026034</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1124902161163928</v>
+        <v>0.1009253291147903</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02438306231791129</v>
+        <v>0.03904202289196309</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>767744554.5921602</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1722690788.227911</v>
+        <v>2073054111.944427</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1928320250147683</v>
+        <v>0.1502255647624895</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02897829205517836</v>
+        <v>0.03004245567851067</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>861345430.7926494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1730359709.076322</v>
+        <v>1355088097.990852</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1548615959333389</v>
+        <v>0.1262416057378055</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05809705798924194</v>
+        <v>0.04681854789068142</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>865179763.0691216</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2774700118.246</v>
+        <v>2412665121.616377</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1472017930866887</v>
+        <v>0.1165771772520174</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03563779954049932</v>
+        <v>0.03843288403753646</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>104</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1387350057.527169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3006233235.575334</v>
+        <v>4191441147.210971</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1133129453918807</v>
+        <v>0.1024204663718836</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03882373298136191</v>
+        <v>0.03578080890704072</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1503116578.697206</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2450377789.502884</v>
+        <v>2324394968.340821</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1662097295062654</v>
+        <v>0.1313584725552195</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02194956859757516</v>
+        <v>0.02088212428230873</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>142</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1225188948.418765</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1759477707.287031</v>
+        <v>1677106356.843942</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06334792187275391</v>
+        <v>0.1021484053330213</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02934050835589009</v>
+        <v>0.03652340672829551</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>879738912.0014752</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1869012229.300469</v>
+        <v>2354018291.049129</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1287939934539454</v>
+        <v>0.1606308868139459</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04279134334600782</v>
+        <v>0.0439997535814767</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>934506092.3341662</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5640654414.328684</v>
+        <v>5250480641.891291</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1241135270240364</v>
+        <v>0.1172795362635723</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04447791479247654</v>
+        <v>0.05382638912188793</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>145</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2820327270.685329</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4642409908.867027</v>
+        <v>3944524458.027705</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1808199604521159</v>
+        <v>0.1777845882954555</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04355933930542435</v>
+        <v>0.04696184678210252</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>109</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2321204989.965247</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3943224282.929007</v>
+        <v>2939031727.662428</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1024918821150601</v>
+        <v>0.09013939821439114</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02659864927409344</v>
+        <v>0.02439178185398193</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1971612179.135505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1650691006.869327</v>
+        <v>1933875560.898632</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1615701638268315</v>
+        <v>0.142077136410459</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04018552059711071</v>
+        <v>0.03465968840580092</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>825345512.0477786</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3571544275.990894</v>
+        <v>2715071937.810686</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1115352044754827</v>
+        <v>0.1241475011207084</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03944424895792589</v>
+        <v>0.0426057242062424</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>139</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1785772157.166053</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1408569694.824811</v>
+        <v>1343843070.745911</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1463110962739944</v>
+        <v>0.1945754621120837</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04146918789383648</v>
+        <v>0.05246022157412072</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>704284865.1774846</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4786438818.326862</v>
+        <v>5197893064.667058</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1229937426520923</v>
+        <v>0.09172718800767261</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06027302431279513</v>
+        <v>0.06148966703794152</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>167</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2393219419.370592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3507248560.273542</v>
+        <v>3537928191.857663</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1284920054973766</v>
+        <v>0.1431905235766122</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02751439121617066</v>
+        <v>0.0333605910749203</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1753624277.579655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4977239862.144844</v>
+        <v>3183836607.075118</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1025292727302528</v>
+        <v>0.1692315395175951</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03376994180435518</v>
+        <v>0.03294973822941492</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>132</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2488620071.916961</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3233249033.623421</v>
+        <v>3421500276.831466</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1352741687047304</v>
+        <v>0.2191522677562666</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02942012767182533</v>
+        <v>0.02392839908126511</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1616624457.878566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1702213384.729973</v>
+        <v>1700427717.955396</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1607552880239326</v>
+        <v>0.106441939391653</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03786851669774551</v>
+        <v>0.05536588695788317</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>851106704.6861055</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3167032328.098856</v>
+        <v>2884955345.26993</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1813173934340704</v>
+        <v>0.1192216483634583</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02239971422765294</v>
+        <v>0.02010416664026668</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>130</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1583516182.493811</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1703866306.283827</v>
+        <v>1264591221.457713</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1984913163882409</v>
+        <v>0.181899493678958</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02437904508714722</v>
+        <v>0.02675630085973571</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>851933165.6909567</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3798896184.108677</v>
+        <v>3651558999.487402</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08473403710303588</v>
+        <v>0.1061283487110372</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0413354720526429</v>
+        <v>0.03593853548425723</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>111</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1899448077.727408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2721604236.079993</v>
+        <v>2992909635.427273</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1995688915443539</v>
+        <v>0.1248424432539843</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02914039576730638</v>
+        <v>0.02969885897524589</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>126</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1360802159.202475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2963669402.700465</v>
+        <v>3226350041.127055</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1747933773291491</v>
+        <v>0.1754124956598395</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02761837673468738</v>
+        <v>0.02716761515137218</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>140</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1481834685.258277</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2054163327.304219</v>
+        <v>1535848317.391107</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1624749759496001</v>
+        <v>0.1667588167915862</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04815157564993847</v>
+        <v>0.04549167840479583</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1027081729.871711</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5017669155.19521</v>
+        <v>4965405658.051842</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07193079406725941</v>
+        <v>0.07859211779491534</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04669601926359267</v>
+        <v>0.04627924456651654</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2508834594.56865</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3943445703.92517</v>
+        <v>3501855754.719883</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1869945060524882</v>
+        <v>0.1795121752118968</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03134172732351752</v>
+        <v>0.02750907758328332</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>127</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1971722883.859823</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3754106537.280502</v>
+        <v>5080312043.224931</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1150944705434815</v>
+        <v>0.1075442284052592</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02184100900363553</v>
+        <v>0.02484848757649598</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>146</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1877053301.903143</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4461786281.272597</v>
+        <v>3790839822.78502</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1199935607982962</v>
+        <v>0.1188766934731382</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04626259286562774</v>
+        <v>0.03369529044356583</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>119</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2230893138.976933</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2580101785.555015</v>
+        <v>2245838290.6747</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07238923199017865</v>
+        <v>0.07313627262725453</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03339814857814036</v>
+        <v>0.03960717597876681</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>130</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1290050946.611927</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4074525486.036885</v>
+        <v>5401915934.613643</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1089553361978584</v>
+        <v>0.1419074728793616</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0482081951516403</v>
+        <v>0.04003452198299787</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2037262743.332813</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2104378562.503583</v>
+        <v>2020912763.341968</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1264974196995839</v>
+        <v>0.175371184642247</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03712298137080251</v>
+        <v>0.04723065274127611</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1052189299.745879</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2543748661.474516</v>
+        <v>2775792894.788264</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09215958913866849</v>
+        <v>0.07045676346704387</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04681727072778123</v>
+        <v>0.03681116723993036</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>116</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1271874278.124058</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5639026534.088899</v>
+        <v>5508603382.563848</v>
       </c>
       <c r="F71" t="n">
-        <v>0.180569198069881</v>
+        <v>0.1699606079476482</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02684160184303394</v>
+        <v>0.02519964970956591</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>148</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2819513420.445175</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2190344610.02905</v>
+        <v>1743907793.682873</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06918879885927928</v>
+        <v>0.06633008157561408</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04488827126422702</v>
+        <v>0.04509421280908971</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1095172220.648246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2983071268.708947</v>
+        <v>3280618351.411107</v>
       </c>
       <c r="F73" t="n">
-        <v>0.106588545492279</v>
+        <v>0.07312982622345354</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03451304588079682</v>
+        <v>0.03666204371526793</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>155</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1491535631.883122</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3395783224.620844</v>
+        <v>3133001570.79293</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1177567864530595</v>
+        <v>0.1235877113863059</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02903862840476875</v>
+        <v>0.03422221900705111</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>139</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1697891643.527969</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1647192709.717565</v>
+        <v>1551436557.877461</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1391018635983191</v>
+        <v>0.1128160606490057</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02664820729563299</v>
+        <v>0.03036559801743711</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>823596352.1004596</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4690226174.002103</v>
+        <v>5274244748.769386</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1144975461683416</v>
+        <v>0.08207212276155333</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03181366278151886</v>
+        <v>0.03392618247765809</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2345113100.647874</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1855942958.691822</v>
+        <v>1431455553.10602</v>
       </c>
       <c r="F77" t="n">
-        <v>0.147656128919872</v>
+        <v>0.120585660972187</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02205561338943302</v>
+        <v>0.01999054001037471</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>927971519.5871596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3497106818.124306</v>
+        <v>3734681746.242782</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1161529914366202</v>
+        <v>0.105145450092328</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04719449626324324</v>
+        <v>0.04244762562715783</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>141</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1748553410.795848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1392213889.077715</v>
+        <v>1588277400.345826</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1728340021994363</v>
+        <v>0.1480428791783024</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02683817068351094</v>
+        <v>0.03182371905003019</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>696106959.9187658</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4778296949.693449</v>
+        <v>3708846130.470797</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07131502107866271</v>
+        <v>0.08350240611975189</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02665097325429931</v>
+        <v>0.03157847284879928</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2389148513.060131</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3445773072.919929</v>
+        <v>4465925732.553999</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1081488169057207</v>
+        <v>0.1095274963219418</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03094973385815365</v>
+        <v>0.02883721845799963</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>91</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1722886479.108672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4445752955.170372</v>
+        <v>3896596756.71285</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2062578491370416</v>
+        <v>0.1946591947183476</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01779658588062722</v>
+        <v>0.02423065679267193</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2222876492.488239</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1570613133.428554</v>
+        <v>2207742454.964133</v>
       </c>
       <c r="F83" t="n">
-        <v>0.138883690924742</v>
+        <v>0.145744101957817</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02859397566050352</v>
+        <v>0.03539678198057958</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>785306498.6166172</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1794200040.495818</v>
+        <v>2177210410.38028</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09488945217764996</v>
+        <v>0.0784036979419781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04110436169454248</v>
+        <v>0.05161835567811168</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>897100055.3944635</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3453587911.576241</v>
+        <v>2520508441.370088</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1335122058995813</v>
+        <v>0.1140489122764373</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03818877747799552</v>
+        <v>0.05328353412341296</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>153</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1726794066.018767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2207341893.92478</v>
+        <v>2404509536.056397</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1107099611946821</v>
+        <v>0.152326240285019</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01875344563256506</v>
+        <v>0.02590877667560071</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1103671003.424689</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1365203936.825732</v>
+        <v>1001862596.474385</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1571557274540807</v>
+        <v>0.1359582555528349</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02773765705411642</v>
+        <v>0.04038121239107174</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>682602066.3713682</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3531443151.304299</v>
+        <v>2979664647.783413</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1156690702967813</v>
+        <v>0.1173281420437682</v>
       </c>
       <c r="G88" t="n">
-        <v>0.037166124810298</v>
+        <v>0.03250580706435895</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>160</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1765721658.624863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2865051759.702926</v>
+        <v>3420677829.285552</v>
       </c>
       <c r="F89" t="n">
-        <v>0.160322640186552</v>
+        <v>0.1138889281545414</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03977492866910518</v>
+        <v>0.03134899313080356</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>137</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1432525927.861506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2076861559.966519</v>
+        <v>1741418546.287387</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1166241609413411</v>
+        <v>0.1235670207047361</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04749793990352743</v>
+        <v>0.0367389596943538</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1038430864.294116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1667421294.428453</v>
+        <v>1665920785.818185</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1899115814011386</v>
+        <v>0.1349000700100071</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04435219594595174</v>
+        <v>0.05400113591043616</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>833710663.818138</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2316689616.786214</v>
+        <v>2552284145.334707</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09241987376373466</v>
+        <v>0.09159182995292274</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04084349959004711</v>
+        <v>0.04693578608313746</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>117</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1158344778.500526</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4684000719.075086</v>
+        <v>3854129213.497261</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09215491837818436</v>
+        <v>0.1411715587948481</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03877923007264542</v>
+        <v>0.03641888279994141</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2342000315.955194</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2166432404.239828</v>
+        <v>1826984588.92655</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1462825037400405</v>
+        <v>0.1140237916341631</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0409985213097552</v>
+        <v>0.03010331997389092</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1083216222.135048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2406151953.131823</v>
+        <v>3083769745.89584</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09724263527844237</v>
+        <v>0.127413442289724</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03781473664450804</v>
+        <v>0.04874851063220287</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>99</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1203076019.533455</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1778806715.782852</v>
+        <v>1811566860.646002</v>
       </c>
       <c r="F96" t="n">
-        <v>0.114230271239306</v>
+        <v>0.1113690722088083</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04391621386291283</v>
+        <v>0.04411789693574578</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>889403368.4911497</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3699089590.448616</v>
+        <v>4191546035.066634</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1593452157383609</v>
+        <v>0.1554806589001522</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02300834425517777</v>
+        <v>0.02803004081185629</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>131</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1849544827.419222</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2601815328.426279</v>
+        <v>3167900431.872455</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09112336415177749</v>
+        <v>0.1015262477688199</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0229460511348774</v>
+        <v>0.03279468068785877</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1300907621.912214</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2555157971.153094</v>
+        <v>2107234232.671294</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1295496925846174</v>
+        <v>0.1357100872039827</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0215205546598874</v>
+        <v>0.02735570261620251</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>129</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1277578939.319886</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4767299044.030643</v>
+        <v>4794399582.651761</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1287715799982424</v>
+        <v>0.1443421325230524</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01862964377704276</v>
+        <v>0.01894708801454154</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2383649653.963669</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2334826548.002401</v>
+        <v>3058957135.461845</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1539934106785588</v>
+        <v>0.2129452089564205</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03825130385334553</v>
+        <v>0.05059396320996909</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>165</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1167413275.173479</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_407.xlsx
+++ b/output/fit_clients/fit_round_407.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1704599505.538566</v>
+        <v>1754073972.81607</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1003290569419653</v>
+        <v>0.1142239144166395</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04463917580739363</v>
+        <v>0.03582815677793413</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2401457915.338233</v>
+        <v>2175405915.354634</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1591122214341303</v>
+        <v>0.1431664921855213</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04034421965578613</v>
+        <v>0.03264324533142971</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4819998589.038712</v>
+        <v>4851218457.765604</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1505915651407378</v>
+        <v>0.1505311579803963</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02770120070151635</v>
+        <v>0.02334371075316351</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3850246001.263911</v>
+        <v>3826647961.037467</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06996124653961236</v>
+        <v>0.0692690072576998</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03222650769528213</v>
+        <v>0.03146493922137666</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2011341403.820247</v>
+        <v>1936096356.137877</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1144546289463588</v>
+        <v>0.1484071697008509</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04945525054001381</v>
+        <v>0.0499529445965679</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2170768771.352629</v>
+        <v>2131168206.528867</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07078796567037822</v>
+        <v>0.07364491711419166</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04194194101321726</v>
+        <v>0.02999903166300321</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2393484104.037608</v>
+        <v>2886633091.612701</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1769533662555973</v>
+        <v>0.2178587208077011</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03021307724460943</v>
+        <v>0.03180906927907225</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1840672350.805832</v>
+        <v>1918579388.510476</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1935986644416264</v>
+        <v>0.1288718368989611</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02759721697727231</v>
+        <v>0.03196828155797147</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4007465930.912882</v>
+        <v>4297968968.507395</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1482696723485133</v>
+        <v>0.1815076565991326</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03860643279734031</v>
+        <v>0.04425420023760132</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3997779255.138369</v>
+        <v>3786168595.452474</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1846054229110805</v>
+        <v>0.1766301166291807</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03828661590378878</v>
+        <v>0.03043535578962571</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2867766901.192755</v>
+        <v>3174261891.959836</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1240024217028968</v>
+        <v>0.1237140185377085</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03614872139667528</v>
+        <v>0.05184088334253511</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4741338509.317833</v>
+        <v>4394529790.786761</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07158564723176009</v>
+        <v>0.07909289564621753</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02701440953849451</v>
+        <v>0.02521338059059298</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2928439684.68375</v>
+        <v>3050084627.925435</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1681880599383027</v>
+        <v>0.1444154535164681</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02992318426206755</v>
+        <v>0.03856441299211601</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1275783701.665699</v>
+        <v>1235791594.051201</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06883445770180464</v>
+        <v>0.08051678400951608</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04542046353746178</v>
+        <v>0.03136896819475696</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2526029505.874468</v>
+        <v>1935935547.684903</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09870769629781473</v>
+        <v>0.07024904626937051</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04818183996583014</v>
+        <v>0.0480378341319207</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4465378548.496155</v>
+        <v>4628084173.751642</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1604988443505704</v>
+        <v>0.1640707202682719</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03498686226309904</v>
+        <v>0.04338431504683733</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3586411170.921331</v>
+        <v>3172749458.865825</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1332805593107269</v>
+        <v>0.1742516082032288</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03221090707237124</v>
+        <v>0.0282091461554752</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1258928930.806247</v>
+        <v>1058862090.044685</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1388905132090505</v>
+        <v>0.1912473108872126</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01896507553777575</v>
+        <v>0.02605301324039394</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2505649234.195848</v>
+        <v>2598485219.202562</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1461505290679561</v>
+        <v>0.1044423652649832</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02007244294209655</v>
+        <v>0.02759581934613902</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2667912475.257367</v>
+        <v>2458719103.701364</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07405934918572393</v>
+        <v>0.09162727551484463</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04016220137161432</v>
+        <v>0.03376996056637603</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2721925575.578806</v>
+        <v>3179150324.682326</v>
       </c>
       <c r="F22" t="n">
-        <v>0.119017756475629</v>
+        <v>0.1324704748697408</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04716586579613494</v>
+        <v>0.05283883010496878</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1112607109.877807</v>
+        <v>1105830458.79687</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1230699845467249</v>
+        <v>0.1653015413152376</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04551329868493491</v>
+        <v>0.03970843483622563</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2647783931.915474</v>
+        <v>3345515076.072788</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1439173001158611</v>
+        <v>0.1126533951792577</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03356473400471702</v>
+        <v>0.02691640289490962</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1319488970.167948</v>
+        <v>1161787108.230253</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08503066662999101</v>
+        <v>0.1090129132255086</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01939217058405908</v>
+        <v>0.01876103015225882</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1110616468.078505</v>
+        <v>1187818880.769655</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08805756194483212</v>
+        <v>0.09389555666705035</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02407402259917235</v>
+        <v>0.03288984092232458</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4648792437.037823</v>
+        <v>4370744012.471399</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09889664303116719</v>
+        <v>0.1217181724950449</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01874128992085228</v>
+        <v>0.01929045160789678</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3632996095.783069</v>
+        <v>3084324809.63564</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1154513294798982</v>
+        <v>0.1424143815821711</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04217813612690731</v>
+        <v>0.05003009233969856</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5692014055.984125</v>
+        <v>5350256762.206845</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1103660505489621</v>
+        <v>0.1149052240324103</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04184220097135025</v>
+        <v>0.03269037294545952</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2332497312.706984</v>
+        <v>2413102971.463063</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1266113964056562</v>
+        <v>0.115213461249466</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02735338019559239</v>
+        <v>0.0373660686541353</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1202552822.946097</v>
+        <v>1460273984.272363</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07305065671344471</v>
+        <v>0.08828285686247501</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04385778750170346</v>
+        <v>0.04418555340676396</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1226956873.78812</v>
+        <v>1331483203.631681</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1049928053438881</v>
+        <v>0.08428460105681621</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0250780041605802</v>
+        <v>0.03250944966458758</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2135852362.343929</v>
+        <v>2634549081.828976</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2051181752828423</v>
+        <v>0.1454663135411444</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03846131626148085</v>
+        <v>0.04799623222843459</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1500917938.679206</v>
+        <v>1303599298.434458</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07887792778445184</v>
+        <v>0.09717060374795855</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01772038088223613</v>
+        <v>0.01828457880370595</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1206711609.943205</v>
+        <v>1339931308.876596</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08247917617129491</v>
+        <v>0.08930448218394502</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03948927669615827</v>
+        <v>0.03387078007311586</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3140915857.645995</v>
+        <v>3003729223.333268</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1168876070142778</v>
+        <v>0.1300702137533371</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02354334926984004</v>
+        <v>0.02526275288454825</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2660935116.195786</v>
+        <v>2818888832.012351</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1005482729643096</v>
+        <v>0.1075728843426868</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04174064067358155</v>
+        <v>0.03131262567648738</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1893204381.026034</v>
+        <v>2012057722.984149</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1009253291147903</v>
+        <v>0.1213706324666772</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03904202289196309</v>
+        <v>0.0358977092426282</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2073054111.944427</v>
+        <v>1802735984.947677</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1502255647624895</v>
+        <v>0.1730905719577283</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03004245567851067</v>
+        <v>0.02069196558497665</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1355088097.990852</v>
+        <v>1656689359.727835</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1262416057378055</v>
+        <v>0.1351519245913289</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04681854789068142</v>
+        <v>0.05211148035729232</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2412665121.616377</v>
+        <v>2693925615.174719</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1165771772520174</v>
+        <v>0.1411432810206273</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03843288403753646</v>
+        <v>0.0342759355166363</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4191441147.210971</v>
+        <v>2699789964.177413</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1024204663718836</v>
+        <v>0.09862571309505909</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03578080890704072</v>
+        <v>0.04520339571484525</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2324394968.340821</v>
+        <v>3045599475.241845</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1313584725552195</v>
+        <v>0.1938457216034309</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02088212428230873</v>
+        <v>0.02408820665094103</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1677106356.843942</v>
+        <v>1600218032.565919</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1021484053330213</v>
+        <v>0.08992039001593746</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03652340672829551</v>
+        <v>0.0317118973917357</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2354018291.049129</v>
+        <v>2003024654.317573</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1606308868139459</v>
+        <v>0.1189518171156744</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0439997535814767</v>
+        <v>0.04356148927750539</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5250480641.891291</v>
+        <v>4960455038.926711</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1172795362635723</v>
+        <v>0.1121849812955602</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05382638912188793</v>
+        <v>0.04795065551520032</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3944524458.027705</v>
+        <v>3740188705.020318</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1777845882954555</v>
+        <v>0.1830976196750387</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04696184678210252</v>
+        <v>0.03652241609812265</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2939031727.662428</v>
+        <v>3579329146.109664</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09013939821439114</v>
+        <v>0.09438805945520877</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02439178185398193</v>
+        <v>0.03504778148952298</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1933875560.898632</v>
+        <v>1814735627.144325</v>
       </c>
       <c r="F49" t="n">
-        <v>0.142077136410459</v>
+        <v>0.159046793142643</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03465968840580092</v>
+        <v>0.04166871469089883</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2715071937.810686</v>
+        <v>3799873805.13051</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1241475011207084</v>
+        <v>0.1160384823580357</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0426057242062424</v>
+        <v>0.03558110540490431</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1343843070.745911</v>
+        <v>1336205372.678083</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1945754621120837</v>
+        <v>0.1912162467917649</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05246022157412072</v>
+        <v>0.05048832656302945</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5197893064.667058</v>
+        <v>4408841339.537614</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09172718800767261</v>
+        <v>0.09878748319379478</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06148966703794152</v>
+        <v>0.06124520269656891</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3537928191.857663</v>
+        <v>2719247954.960958</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1431905235766122</v>
+        <v>0.175778502923125</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0333605910749203</v>
+        <v>0.02719635287987876</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3183836607.075118</v>
+        <v>3957579291.267204</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1692315395175951</v>
+        <v>0.1418942276510574</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03294973822941492</v>
+        <v>0.05056561161750661</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3421500276.831466</v>
+        <v>3240471278.925363</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2191522677562666</v>
+        <v>0.224315450748268</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02392839908126511</v>
+        <v>0.02459663048678706</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1700427717.955396</v>
+        <v>1207574243.033988</v>
       </c>
       <c r="F56" t="n">
-        <v>0.106441939391653</v>
+        <v>0.1299880365434009</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05536588695788317</v>
+        <v>0.03673951294905418</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2884955345.26993</v>
+        <v>3500205493.957488</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1192216483634583</v>
+        <v>0.1825687581084762</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02010416664026668</v>
+        <v>0.01962168378335991</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1264591221.457713</v>
+        <v>1729228531.987341</v>
       </c>
       <c r="F58" t="n">
-        <v>0.181899493678958</v>
+        <v>0.1840141120200038</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02675630085973571</v>
+        <v>0.03197608529853044</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3651558999.487402</v>
+        <v>4507710259.975679</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1061283487110372</v>
+        <v>0.09924049188661165</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03593853548425723</v>
+        <v>0.04940005556624608</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2992909635.427273</v>
+        <v>3592929207.234855</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1248424432539843</v>
+        <v>0.171964596532851</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02969885897524589</v>
+        <v>0.02472344270089898</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3226350041.127055</v>
+        <v>2147613333.713475</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1754124956598395</v>
+        <v>0.155001187990017</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02716761515137218</v>
+        <v>0.02524476641713561</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1535848317.391107</v>
+        <v>1588755229.347631</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1667588167915862</v>
+        <v>0.1384471646454216</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04549167840479583</v>
+        <v>0.03724729411927312</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4965405658.051842</v>
+        <v>3566265258.251397</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07859211779491534</v>
+        <v>0.07670045818486716</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04627924456651654</v>
+        <v>0.03052285130021596</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3501855754.719883</v>
+        <v>4604974183.003955</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1795121752118968</v>
+        <v>0.1729221611015944</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02750907758328332</v>
+        <v>0.02558183713179536</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5080312043.224931</v>
+        <v>5818052106.871101</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1075442284052592</v>
+        <v>0.1110555759170247</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02484848757649598</v>
+        <v>0.02485510207495582</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3790839822.78502</v>
+        <v>4031082645.009407</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1188766934731382</v>
+        <v>0.1233950069299061</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03369529044356583</v>
+        <v>0.04448032609619373</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2245838290.6747</v>
+        <v>3012943659.313331</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07313627262725453</v>
+        <v>0.06622915654270044</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03960717597876681</v>
+        <v>0.03482142814852463</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5401915934.613643</v>
+        <v>5128500776.093901</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1419074728793616</v>
+        <v>0.1100550389788708</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04003452198299787</v>
+        <v>0.04693752695410868</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2020912763.341968</v>
+        <v>2035251884.547168</v>
       </c>
       <c r="F69" t="n">
-        <v>0.175371184642247</v>
+        <v>0.1547646485406884</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04723065274127611</v>
+        <v>0.04157933074503394</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2775792894.788264</v>
+        <v>3483928812.076448</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07045676346704387</v>
+        <v>0.08010045872486468</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03681116723993036</v>
+        <v>0.03808396440225545</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5508603382.563848</v>
+        <v>5522460160.093824</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1699606079476482</v>
+        <v>0.1598670573332526</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02519964970956591</v>
+        <v>0.03212159592525173</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1743907793.682873</v>
+        <v>1856061428.670827</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06633008157561408</v>
+        <v>0.06564825659076048</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04509421280908971</v>
+        <v>0.0533460904402589</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3280618351.411107</v>
+        <v>3505094516.838975</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07312982622345354</v>
+        <v>0.08340792796377325</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03666204371526793</v>
+        <v>0.03477119054629503</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3133001570.79293</v>
+        <v>3257618311.47646</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1235877113863059</v>
+        <v>0.1115354253520458</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03422221900705111</v>
+        <v>0.02585186798747064</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1551436557.877461</v>
+        <v>2168438549.468809</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1128160606490057</v>
+        <v>0.1065732469975389</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03036559801743711</v>
+        <v>0.02361031918692399</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5274244748.769386</v>
+        <v>4805772729.891477</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08207212276155333</v>
+        <v>0.1133823775725234</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03392618247765809</v>
+        <v>0.02412296201472591</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1431455553.10602</v>
+        <v>1668855942.573562</v>
       </c>
       <c r="F77" t="n">
-        <v>0.120585660972187</v>
+        <v>0.1155004302844768</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01999054001037471</v>
+        <v>0.0269394058459359</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3734681746.242782</v>
+        <v>3391412871.151962</v>
       </c>
       <c r="F78" t="n">
-        <v>0.105145450092328</v>
+        <v>0.09825325736559938</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04244762562715783</v>
+        <v>0.04349704455110429</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1588277400.345826</v>
+        <v>1235467516.439879</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1480428791783024</v>
+        <v>0.1747631513765601</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03182371905003019</v>
+        <v>0.02990111772550817</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3708846130.470797</v>
+        <v>5105506109.611074</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08350240611975189</v>
+        <v>0.09942752691775381</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03157847284879928</v>
+        <v>0.03241902845225935</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4465925732.553999</v>
+        <v>5171679072.475167</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1095274963219418</v>
+        <v>0.1019957065110274</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02883721845799963</v>
+        <v>0.02438020057101116</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3896596756.71285</v>
+        <v>3551760270.22365</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1946591947183476</v>
+        <v>0.2017793934732637</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02423065679267193</v>
+        <v>0.02850056166961339</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2207742454.964133</v>
+        <v>2221146327.005186</v>
       </c>
       <c r="F83" t="n">
-        <v>0.145744101957817</v>
+        <v>0.09542493554984556</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03539678198057958</v>
+        <v>0.03675264836480769</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2177210410.38028</v>
+        <v>1983251086.181714</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0784036979419781</v>
+        <v>0.1123504614544021</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05161835567811168</v>
+        <v>0.05215736995684119</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2520508441.370088</v>
+        <v>3089182089.977877</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1140489122764373</v>
+        <v>0.1553597217568029</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05328353412341296</v>
+        <v>0.03733536124527632</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2404509536.056397</v>
+        <v>2367047480.213629</v>
       </c>
       <c r="F86" t="n">
-        <v>0.152326240285019</v>
+        <v>0.1381860371148282</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02590877667560071</v>
+        <v>0.02350850852301353</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1001862596.474385</v>
+        <v>1153816108.448895</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1359582555528349</v>
+        <v>0.1317151451071247</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04038121239107174</v>
+        <v>0.0410027774520664</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2979664647.783413</v>
+        <v>3720250672.683995</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1173281420437682</v>
+        <v>0.1393309390339977</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03250580706435895</v>
+        <v>0.02413966886763234</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3420677829.285552</v>
+        <v>3074071104.050677</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1138889281545414</v>
+        <v>0.1126924566718462</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03134899313080356</v>
+        <v>0.03968414674677358</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1741418546.287387</v>
+        <v>1775218144.454296</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1235670207047361</v>
+        <v>0.1027275379393662</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0367389596943538</v>
+        <v>0.04003380463197501</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1665920785.818185</v>
+        <v>2013157525.757652</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1349000700100071</v>
+        <v>0.1303374483179524</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05400113591043616</v>
+        <v>0.03737641547460898</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2552284145.334707</v>
+        <v>2653926994.98291</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09159182995292274</v>
+        <v>0.08654005393740057</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04693578608313746</v>
+        <v>0.03629059300448585</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3854129213.497261</v>
+        <v>4905777493.284128</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1411715587948481</v>
+        <v>0.1341226873387566</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03641888279994141</v>
+        <v>0.04607894246768083</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1826984588.92655</v>
+        <v>1902523109.487514</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1140237916341631</v>
+        <v>0.1152135171891324</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03010331997389092</v>
+        <v>0.02955820645014467</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3083769745.89584</v>
+        <v>2927562341.526319</v>
       </c>
       <c r="F95" t="n">
-        <v>0.127413442289724</v>
+        <v>0.08640746020504127</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04874851063220287</v>
+        <v>0.04122336855550009</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1811566860.646002</v>
+        <v>1796049636.861489</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1113690722088083</v>
+        <v>0.09414534870950098</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04411789693574578</v>
+        <v>0.03542483057092574</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4191546035.066634</v>
+        <v>3850757950.048137</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1554806589001522</v>
+        <v>0.1506104859401053</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02803004081185629</v>
+        <v>0.02704546214128827</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3167900431.872455</v>
+        <v>3424018249.097672</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1015262477688199</v>
+        <v>0.1001979686246503</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03279468068785877</v>
+        <v>0.02809390260481259</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2107234232.671294</v>
+        <v>3410780959.080018</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1357100872039827</v>
+        <v>0.1063443973705537</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02735570261620251</v>
+        <v>0.02720769479600071</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4794399582.651761</v>
+        <v>4054506903.496083</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1443421325230524</v>
+        <v>0.1795294436487989</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01894708801454154</v>
+        <v>0.02117353652988404</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3058957135.461845</v>
+        <v>3398184732.319444</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2129452089564205</v>
+        <v>0.135621360128975</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05059396320996909</v>
+        <v>0.03902597662885519</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_407.xlsx
+++ b/output/fit_clients/fit_round_407.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1754073972.81607</v>
+        <v>2323346806.974562</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1142239144166395</v>
+        <v>0.07447579901108739</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03582815677793413</v>
+        <v>0.04451057854843357</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2175405915.354634</v>
+        <v>2227037838.30373</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1431664921855213</v>
+        <v>0.146801811532788</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03264324533142971</v>
+        <v>0.04607535658448352</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4851218457.765604</v>
+        <v>3897502759.306687</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1505311579803963</v>
+        <v>0.1587217934207709</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02334371075316351</v>
+        <v>0.03243907395133414</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>207</v>
+      </c>
+      <c r="J4" t="n">
+        <v>406</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42.62139827397479</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3826647961.037467</v>
+        <v>3754233276.985862</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0692690072576998</v>
+        <v>0.1017124295995302</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03146493922137666</v>
+        <v>0.04530321696522856</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>165</v>
+      </c>
+      <c r="J5" t="n">
+        <v>407</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1936096356.137877</v>
+        <v>2838167417.153923</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1484071697008509</v>
+        <v>0.09116069871475145</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0499529445965679</v>
+        <v>0.05016745936025561</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2131168206.528867</v>
+        <v>1937958539.317433</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07364491711419166</v>
+        <v>0.08896085505592007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02999903166300321</v>
+        <v>0.04185959030891544</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2886633091.612701</v>
+        <v>3150440920.788299</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2178587208077011</v>
+        <v>0.2114246640740347</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03180906927907225</v>
+        <v>0.02966820853451691</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>111</v>
+      </c>
+      <c r="J8" t="n">
+        <v>405</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1918579388.510476</v>
+        <v>1841467780.802024</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1288718368989611</v>
+        <v>0.1798685125817288</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03196828155797147</v>
+        <v>0.02258602308259311</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4297968968.507395</v>
+        <v>3801796953.492499</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1815076565991326</v>
+        <v>0.1551506514471768</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04425420023760132</v>
+        <v>0.03969380829001581</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>328</v>
+      </c>
+      <c r="J10" t="n">
+        <v>406</v>
+      </c>
+      <c r="K10" t="n">
+        <v>39.28762969030488</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3786168595.452474</v>
+        <v>3651520940.599871</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1766301166291807</v>
+        <v>0.1671927092189541</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03043535578962571</v>
+        <v>0.03533830705372833</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>169</v>
+      </c>
+      <c r="J11" t="n">
+        <v>400</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3174261891.959836</v>
+        <v>3031098936.568755</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1237140185377085</v>
+        <v>0.1270359813945816</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05184088334253511</v>
+        <v>0.04101032058520795</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4394529790.786761</v>
+        <v>4244573491.087912</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07909289564621753</v>
+        <v>0.08147723420716016</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02521338059059298</v>
+        <v>0.02025432235822004</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>212</v>
+      </c>
+      <c r="J13" t="n">
+        <v>407</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3050084627.925435</v>
+        <v>2504128068.933256</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1444154535164681</v>
+        <v>0.129297566103606</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03856441299211601</v>
+        <v>0.04323161954918144</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>401</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1235791594.051201</v>
+        <v>1453995049.401747</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08051678400951608</v>
+        <v>0.09633741247766235</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03136896819475696</v>
+        <v>0.04844118010565091</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1935935547.684903</v>
+        <v>2737868371.238094</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07024904626937051</v>
+        <v>0.08204801227367257</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0480378341319207</v>
+        <v>0.0381348842966969</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4628084173.751642</v>
+        <v>4142212115.950953</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1640707202682719</v>
+        <v>0.1699187744540055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04338431504683733</v>
+        <v>0.04502241345743278</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>196</v>
+      </c>
+      <c r="J17" t="n">
+        <v>407</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1065,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3172749458.865825</v>
+        <v>3527329556.341285</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1742516082032288</v>
+        <v>0.1579459427648886</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0282091461554752</v>
+        <v>0.02563746358349903</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>103</v>
+      </c>
+      <c r="J18" t="n">
+        <v>406</v>
+      </c>
+      <c r="K18" t="n">
+        <v>45.41021153737297</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1058862090.044685</v>
+        <v>933080101.1007789</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1912473108872126</v>
+        <v>0.12846079383922</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02605301324039394</v>
+        <v>0.02541260223466502</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2598485219.202562</v>
+        <v>2416270663.534111</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1044423652649832</v>
+        <v>0.1057200983044265</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02759581934613902</v>
+        <v>0.03035827197431196</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2458719103.701364</v>
+        <v>2089616157.743385</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09162727551484463</v>
+        <v>0.0619413604904008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03376996056637603</v>
+        <v>0.03559261225793704</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3179150324.682326</v>
+        <v>3914581229.708152</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1324704748697408</v>
+        <v>0.1052798449850981</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05283883010496878</v>
+        <v>0.03806264580412288</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>113</v>
+      </c>
+      <c r="J22" t="n">
+        <v>407</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1105830458.79687</v>
+        <v>1209936893.148091</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1653015413152376</v>
+        <v>0.1289520844094076</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03970843483622563</v>
+        <v>0.04289829385992051</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3345515076.072788</v>
+        <v>3273826346.148365</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1126533951792577</v>
+        <v>0.098134384195067</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02691640289490962</v>
+        <v>0.02824591289772025</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>128</v>
+      </c>
+      <c r="J24" t="n">
+        <v>406</v>
+      </c>
+      <c r="K24" t="n">
+        <v>35.91570751124208</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1161787108.230253</v>
+        <v>1103686946.548404</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1090129132255086</v>
+        <v>0.1073158783042764</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01876103015225882</v>
+        <v>0.02412256463083343</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1187818880.769655</v>
+        <v>1066124671.781182</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09389555666705035</v>
+        <v>0.09248879444126963</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03288984092232458</v>
+        <v>0.03448547319884233</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4370744012.471399</v>
+        <v>4581014916.308766</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1217181724950449</v>
+        <v>0.127320997730534</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01929045160789678</v>
+        <v>0.02232406757904557</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>171</v>
+      </c>
+      <c r="J27" t="n">
+        <v>407</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3084324809.63564</v>
+        <v>3194381635.262176</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1424143815821711</v>
+        <v>0.1411676726774322</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05003009233969856</v>
+        <v>0.03742521958071288</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>98</v>
+      </c>
+      <c r="J28" t="n">
+        <v>402</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1448,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5350256762.206845</v>
+        <v>4644929103.094961</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1149052240324103</v>
+        <v>0.118793117414164</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03269037294545952</v>
+        <v>0.03497195073627608</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>343</v>
+      </c>
+      <c r="J29" t="n">
+        <v>407</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2413102971.463063</v>
+        <v>1983584350.978975</v>
       </c>
       <c r="F30" t="n">
-        <v>0.115213461249466</v>
+        <v>0.09838182296114127</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0373660686541353</v>
+        <v>0.03326083753191278</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1460273984.272363</v>
+        <v>1330628662.296807</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08828285686247501</v>
+        <v>0.08091564348092495</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04418555340676396</v>
+        <v>0.04382082951214817</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1331483203.631681</v>
+        <v>1609343358.144183</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08428460105681621</v>
+        <v>0.09657265122222167</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03250944966458758</v>
+        <v>0.03610957155892389</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2634549081.828976</v>
+        <v>2445808901.441067</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1454663135411444</v>
+        <v>0.162773513307882</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04799623222843459</v>
+        <v>0.05160116200665996</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1303599298.434458</v>
+        <v>1380664072.914407</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09717060374795855</v>
+        <v>0.1002776985054458</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01828457880370595</v>
+        <v>0.02246797663537322</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1339931308.876596</v>
+        <v>1154008866.212307</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08930448218394502</v>
+        <v>0.1088066998566303</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03387078007311586</v>
+        <v>0.04410174729857907</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3003729223.333268</v>
+        <v>2249225451.904013</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1300702137533371</v>
+        <v>0.1365461025181705</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02526275288454825</v>
+        <v>0.0206582841922659</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2818888832.012351</v>
+        <v>2431782111.942281</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1075728843426868</v>
+        <v>0.07550763033493293</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03131262567648738</v>
+        <v>0.03396761435990896</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2012057722.984149</v>
+        <v>1680122832.064509</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1213706324666772</v>
+        <v>0.0836894648947622</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0358977092426282</v>
+        <v>0.03024748635789811</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1802735984.947677</v>
+        <v>2189801165.627397</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1730905719577283</v>
+        <v>0.1891366831868048</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02069196558497665</v>
+        <v>0.02605909024841888</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1656689359.727835</v>
+        <v>1308799620.043376</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1351519245913289</v>
+        <v>0.09897394242518216</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05211148035729232</v>
+        <v>0.03787336686607674</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2693925615.174719</v>
+        <v>2316819185.513291</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1411432810206273</v>
+        <v>0.1152485508588778</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0342759355166363</v>
+        <v>0.03631995852558605</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2699789964.177413</v>
+        <v>3257775432.687549</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09862571309505909</v>
+        <v>0.1077251545410809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04520339571484525</v>
+        <v>0.03534639017652366</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>175</v>
+      </c>
+      <c r="J42" t="n">
+        <v>406</v>
+      </c>
+      <c r="K42" t="n">
+        <v>37.30915893640478</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3045599475.241845</v>
+        <v>1916065033.827075</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1938457216034309</v>
+        <v>0.1536928891765131</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02408820665094103</v>
+        <v>0.02043438828117376</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1600218032.565919</v>
+        <v>1458006567.234307</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08992039001593746</v>
+        <v>0.06333701503318531</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0317118973917357</v>
+        <v>0.0259493986593536</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2003024654.317573</v>
+        <v>1974922320.205892</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1189518171156744</v>
+        <v>0.1839643594717913</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04356148927750539</v>
+        <v>0.03733835223025037</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2051,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4960455038.926711</v>
+        <v>4012216484.670108</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1121849812955602</v>
+        <v>0.1175087020895951</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04795065551520032</v>
+        <v>0.04199281299574407</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>244</v>
+      </c>
+      <c r="J46" t="n">
+        <v>407</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3740188705.020318</v>
+        <v>4330760422.342945</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1830976196750387</v>
+        <v>0.1820505999618676</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03652241609812265</v>
+        <v>0.05585530444646744</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>183</v>
+      </c>
+      <c r="J47" t="n">
+        <v>406</v>
+      </c>
+      <c r="K47" t="n">
+        <v>43.77639421077475</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3579329146.109664</v>
+        <v>3000813749.8886</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09438805945520877</v>
+        <v>0.09026538590500928</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03504778148952298</v>
+        <v>0.02375828514828932</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>210</v>
+      </c>
+      <c r="J48" t="n">
+        <v>406</v>
+      </c>
+      <c r="K48" t="n">
+        <v>25.57927504471193</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1814735627.144325</v>
+        <v>1725056980.805548</v>
       </c>
       <c r="F49" t="n">
-        <v>0.159046793142643</v>
+        <v>0.1203318971597465</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04166871469089883</v>
+        <v>0.02800288235460031</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3799873805.13051</v>
+        <v>3670745063.596282</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1160384823580357</v>
+        <v>0.1574148559368721</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03558110540490431</v>
+        <v>0.0372706188838957</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>140</v>
+      </c>
+      <c r="J50" t="n">
+        <v>407</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1336205372.678083</v>
+        <v>1144354067.721916</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1912162467917649</v>
+        <v>0.1673596715209408</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05048832656302945</v>
+        <v>0.04507095264675776</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4408841339.537614</v>
+        <v>4843890651.431635</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09878748319379478</v>
+        <v>0.09088578192696545</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06124520269656891</v>
+        <v>0.05838065093010159</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>236</v>
+      </c>
+      <c r="J52" t="n">
+        <v>406</v>
+      </c>
+      <c r="K52" t="n">
+        <v>43.19751790601461</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2719247954.960958</v>
+        <v>3725016542.222152</v>
       </c>
       <c r="F53" t="n">
-        <v>0.175778502923125</v>
+        <v>0.1689198471885613</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02719635287987876</v>
+        <v>0.02613342705967829</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>55</v>
+      </c>
+      <c r="J53" t="n">
+        <v>407</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3957579291.267204</v>
+        <v>4437079783.702994</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1418942276510574</v>
+        <v>0.1684352156117766</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05056561161750661</v>
+        <v>0.05252455810579242</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>217</v>
+      </c>
+      <c r="J54" t="n">
+        <v>407</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3240471278.925363</v>
+        <v>4203907226.848094</v>
       </c>
       <c r="F55" t="n">
-        <v>0.224315450748268</v>
+        <v>0.1486155160747259</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02459663048678706</v>
+        <v>0.02147583127400077</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>199</v>
+      </c>
+      <c r="J55" t="n">
+        <v>407</v>
+      </c>
+      <c r="K55" t="n">
+        <v>46.95942053201689</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1207574243.033988</v>
+        <v>1359952522.444445</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1299880365434009</v>
+        <v>0.1421451710039418</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03673951294905418</v>
+        <v>0.05067775404427827</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3500205493.957488</v>
+        <v>4596251349.753109</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1825687581084762</v>
+        <v>0.1484827388570917</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01962168378335991</v>
+        <v>0.02296005053065438</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>175</v>
+      </c>
+      <c r="J57" t="n">
+        <v>407</v>
+      </c>
+      <c r="K57" t="n">
+        <v>46.56312697889597</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1729228531.987341</v>
+        <v>1288694934.882696</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1840141120200038</v>
+        <v>0.1428176051007544</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03197608529853044</v>
+        <v>0.03397825803296688</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4507710259.975679</v>
+        <v>4993713624.372193</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09924049188661165</v>
+        <v>0.1103216802325995</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04940005556624608</v>
+        <v>0.04876632011884686</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>199</v>
+      </c>
+      <c r="J59" t="n">
+        <v>407</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3592929207.234855</v>
+        <v>3474859643.502442</v>
       </c>
       <c r="F60" t="n">
-        <v>0.171964596532851</v>
+        <v>0.1270800041407155</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02472344270089898</v>
+        <v>0.03351913509067633</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>75</v>
+      </c>
+      <c r="J60" t="n">
+        <v>403</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2147613333.713475</v>
+        <v>2832863999.923558</v>
       </c>
       <c r="F61" t="n">
-        <v>0.155001187990017</v>
+        <v>0.1451059713616102</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02524476641713561</v>
+        <v>0.02191770197783317</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1588755229.347631</v>
+        <v>2040256380.367095</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1384471646454216</v>
+        <v>0.1398197819958891</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03724729411927312</v>
+        <v>0.03178939890635406</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3566265258.251397</v>
+        <v>4256721606.776596</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07670045818486716</v>
+        <v>0.06724951766072029</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03052285130021596</v>
+        <v>0.03734358158380707</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>203</v>
+      </c>
+      <c r="J63" t="n">
+        <v>407</v>
+      </c>
+      <c r="K63" t="n">
+        <v>45.96565082947291</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4604974183.003955</v>
+        <v>3988308577.343461</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1729221611015944</v>
+        <v>0.125947619914311</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02558183713179536</v>
+        <v>0.03231523396599002</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>203</v>
+      </c>
+      <c r="J64" t="n">
+        <v>407</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5818052106.871101</v>
+        <v>5299633166.65885</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1110555759170247</v>
+        <v>0.1185030168640123</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02485510207495582</v>
+        <v>0.02723659911258124</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>300</v>
+      </c>
+      <c r="J65" t="n">
+        <v>407</v>
+      </c>
+      <c r="K65" t="n">
+        <v>46.96448406161173</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4031082645.009407</v>
+        <v>3497431148.720771</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1233950069299061</v>
+        <v>0.1423224583480455</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04448032609619373</v>
+        <v>0.04427657477882761</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>201</v>
+      </c>
+      <c r="J66" t="n">
+        <v>405</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3012943659.313331</v>
+        <v>2241012588.180886</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06622915654270044</v>
+        <v>0.09905274732603497</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03482142814852463</v>
+        <v>0.04990462185658857</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5128500776.093901</v>
+        <v>3992401223.218831</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1100550389788708</v>
+        <v>0.09673760865068058</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04693752695410868</v>
+        <v>0.04236413850430282</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>222</v>
+      </c>
+      <c r="J68" t="n">
+        <v>406</v>
+      </c>
+      <c r="K68" t="n">
+        <v>43.94913579871783</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2035251884.547168</v>
+        <v>2303874649.272233</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1547646485406884</v>
+        <v>0.1655305751179603</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04157933074503394</v>
+        <v>0.05750464910211069</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3483928812.076448</v>
+        <v>2842814190.961552</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08010045872486468</v>
+        <v>0.08838648652882933</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03808396440225545</v>
+        <v>0.03503218676580332</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5522460160.093824</v>
+        <v>4771041600.023027</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1598670573332526</v>
+        <v>0.1428682507976464</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03212159592525173</v>
+        <v>0.02532526506176807</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>287</v>
+      </c>
+      <c r="J71" t="n">
+        <v>407</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1856061428.670827</v>
+        <v>1680728335.204655</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06564825659076048</v>
+        <v>0.08149218712108895</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0533460904402589</v>
+        <v>0.04602042247957642</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3505094516.838975</v>
+        <v>3303616481.618574</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08340792796377325</v>
+        <v>0.09677593622502259</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03477119054629503</v>
+        <v>0.04253563362562754</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3047,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3257618311.47646</v>
+        <v>3918748372.551992</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1115354253520458</v>
+        <v>0.1510132813439007</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02585186798747064</v>
+        <v>0.02915489178907285</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>114</v>
+      </c>
+      <c r="J74" t="n">
+        <v>407</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2168438549.468809</v>
+        <v>1550634288.041786</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1065732469975389</v>
+        <v>0.1085821068638005</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02361031918692399</v>
+        <v>0.03457537417140914</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4805772729.891477</v>
+        <v>3328603973.675111</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1133823775725234</v>
+        <v>0.1198523204334994</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02412296201472591</v>
+        <v>0.03223595202216126</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>193</v>
+      </c>
+      <c r="J76" t="n">
+        <v>406</v>
+      </c>
+      <c r="K76" t="n">
+        <v>31.69011648592581</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1668855942.573562</v>
+        <v>1904448857.103386</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1155004302844768</v>
+        <v>0.1466870730550753</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0269394058459359</v>
+        <v>0.02779363842009177</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3391412871.151962</v>
+        <v>3150625759.245153</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09825325736559938</v>
+        <v>0.09803706774659228</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04349704455110429</v>
+        <v>0.04394314225682307</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>203</v>
+      </c>
+      <c r="J78" t="n">
+        <v>406</v>
+      </c>
+      <c r="K78" t="n">
+        <v>29.6550803943938</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1235467516.439879</v>
+        <v>1696676332.964848</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1747631513765601</v>
+        <v>0.1518924705840337</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02990111772550817</v>
+        <v>0.02657207970410751</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5105506109.611074</v>
+        <v>5021963859.863531</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09942752691775381</v>
+        <v>0.1093555976846895</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03241902845225935</v>
+        <v>0.02877542826008435</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>199</v>
+      </c>
+      <c r="J80" t="n">
+        <v>406</v>
+      </c>
+      <c r="K80" t="n">
+        <v>39.10743777452647</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5171679072.475167</v>
+        <v>4039923612.924055</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1019957065110274</v>
+        <v>0.1151012387141307</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02438020057101116</v>
+        <v>0.02759299704037649</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>189</v>
+      </c>
+      <c r="J81" t="n">
+        <v>407</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3551760270.22365</v>
+        <v>4223387214.8297</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2017793934732637</v>
+        <v>0.1457391685166607</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02850056166961339</v>
+        <v>0.02859051234535337</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>278</v>
+      </c>
+      <c r="J82" t="n">
+        <v>406</v>
+      </c>
+      <c r="K82" t="n">
+        <v>44.48046597276949</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2221146327.005186</v>
+        <v>1767616593.055708</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09542493554984556</v>
+        <v>0.1555142723715875</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03675264836480769</v>
+        <v>0.03366313980315411</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1983251086.181714</v>
+        <v>2007955700.351014</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1123504614544021</v>
+        <v>0.09914552127300483</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05215736995684119</v>
+        <v>0.03512563778329746</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3089182089.977877</v>
+        <v>2699921564.499201</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1553597217568029</v>
+        <v>0.1782984509203815</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03733536124527632</v>
+        <v>0.05368548299792221</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2367047480.213629</v>
+        <v>2093497640.676151</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1381860371148282</v>
+        <v>0.1387785117614302</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02350850852301353</v>
+        <v>0.02417432926969164</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1153816108.448895</v>
+        <v>1336168984.635674</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1317151451071247</v>
+        <v>0.1753959526003637</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0410027774520664</v>
+        <v>0.03062867448350235</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3720250672.683995</v>
+        <v>3478145128.521455</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1393309390339977</v>
+        <v>0.1333029469698586</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02413966886763234</v>
+        <v>0.02592325299012369</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3074071104.050677</v>
+        <v>3471627025.232214</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1126924566718462</v>
+        <v>0.09826387371035651</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03968414674677358</v>
+        <v>0.0277029177741321</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1775218144.454296</v>
+        <v>1712425389.006506</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1027275379393662</v>
+        <v>0.1339723972515608</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04003380463197501</v>
+        <v>0.04509438284910623</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2013157525.757652</v>
+        <v>1281745450.883237</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1303374483179524</v>
+        <v>0.1308519759899707</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03737641547460898</v>
+        <v>0.04382845955833497</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2653926994.98291</v>
+        <v>2358483566.590184</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08654005393740057</v>
+        <v>0.09761881678723888</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03629059300448585</v>
+        <v>0.04523285729603142</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4905777493.284128</v>
+        <v>3751135868.366606</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1341226873387566</v>
+        <v>0.1058596508951124</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04607894246768083</v>
+        <v>0.03698281668002617</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>195</v>
+      </c>
+      <c r="J93" t="n">
+        <v>406</v>
+      </c>
+      <c r="K93" t="n">
+        <v>37.74232754847516</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1902523109.487514</v>
+        <v>1719594514.86707</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1152135171891324</v>
+        <v>0.1331980522665208</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02955820645014467</v>
+        <v>0.03060170774899489</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2927562341.526319</v>
+        <v>2762137539.273472</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08640746020504127</v>
+        <v>0.113097591320103</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04122336855550009</v>
+        <v>0.05284085932980929</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1796049636.861489</v>
+        <v>1684152890.385818</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09414534870950098</v>
+        <v>0.1326782075658281</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03542483057092574</v>
+        <v>0.04308570034612193</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3850757950.048137</v>
+        <v>4598297583.451131</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1506104859401053</v>
+        <v>0.1504710836362756</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02704546214128827</v>
+        <v>0.02246402474437379</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>212</v>
+      </c>
+      <c r="J97" t="n">
+        <v>407</v>
+      </c>
+      <c r="K97" t="n">
+        <v>48.04076208206396</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3424018249.097672</v>
+        <v>2755907023.033787</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1001979686246503</v>
+        <v>0.128488010086247</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02809390260481259</v>
+        <v>0.02874047226874518</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>106</v>
+      </c>
+      <c r="J98" t="n">
+        <v>404</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3410780959.080018</v>
+        <v>2938402943.973488</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1063443973705537</v>
+        <v>0.1436838821180117</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02720769479600071</v>
+        <v>0.03295650413687535</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4054506903.496083</v>
+        <v>4252782583.730306</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1795294436487989</v>
+        <v>0.1500856813853443</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02117353652988404</v>
+        <v>0.01722023574134006</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>189</v>
+      </c>
+      <c r="J100" t="n">
+        <v>406</v>
+      </c>
+      <c r="K100" t="n">
+        <v>45.0027977672169</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3398184732.319444</v>
+        <v>2983972475.391325</v>
       </c>
       <c r="F101" t="n">
-        <v>0.135621360128975</v>
+        <v>0.168978633219081</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03902597662885519</v>
+        <v>0.04472434364462288</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
